--- a/课程表.xlsx
+++ b/课程表.xlsx
@@ -637,7 +637,7 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t> 17:20-20:25) </t>
+      <t> 18:10-20:25) </t>
     </r>
     <r>
       <rPr>
@@ -2111,7 +2111,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="F34" sqref="F34:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
